--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp8a</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp8a</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H2">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I2">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J2">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N2">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O2">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P2">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q2">
-        <v>17.07217127819333</v>
+        <v>9.23658604349778</v>
       </c>
       <c r="R2">
-        <v>153.64954150374</v>
+        <v>83.12927439148001</v>
       </c>
       <c r="S2">
-        <v>0.1354350278616703</v>
+        <v>0.05808796018736725</v>
       </c>
       <c r="T2">
-        <v>0.1472191741263957</v>
+        <v>0.07265015136357185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H3">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I3">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J3">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>104.214408</v>
       </c>
       <c r="O3">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P3">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q3">
-        <v>14.494000912096</v>
+        <v>10.53171122304267</v>
       </c>
       <c r="R3">
-        <v>130.446008208864</v>
+        <v>94.785401007384</v>
       </c>
       <c r="S3">
-        <v>0.1149821768637112</v>
+        <v>0.06623287211833122</v>
       </c>
       <c r="T3">
-        <v>0.1249867289459276</v>
+        <v>0.08283692815378493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H4">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I4">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J4">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N4">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O4">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P4">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q4">
-        <v>7.846847718932001</v>
+        <v>7.182313141751114</v>
       </c>
       <c r="R4">
-        <v>70.621629470388</v>
+        <v>64.64081827576001</v>
       </c>
       <c r="S4">
-        <v>0.06224972923024143</v>
+        <v>0.04516884462143251</v>
       </c>
       <c r="T4">
-        <v>0.06766605265683648</v>
+        <v>0.0564923159305288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H5">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I5">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J5">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N5">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O5">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P5">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q5">
-        <v>10.643931939644</v>
+        <v>7.948281023226501</v>
       </c>
       <c r="R5">
-        <v>63.863591637864</v>
+        <v>47.689686139359</v>
       </c>
       <c r="S5">
-        <v>0.0844392429828036</v>
+        <v>0.04998593955179005</v>
       </c>
       <c r="T5">
-        <v>0.06119084460426378</v>
+        <v>0.04167801225100989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H6">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I6">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J6">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N6">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O6">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P6">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q6">
-        <v>8.857883980467999</v>
+        <v>7.366453551401334</v>
       </c>
       <c r="R6">
-        <v>79.72095582421201</v>
+        <v>66.298081962612</v>
       </c>
       <c r="S6">
-        <v>0.07027036831703354</v>
+        <v>0.04632688512842019</v>
       </c>
       <c r="T6">
-        <v>0.07638456426322425</v>
+        <v>0.05794066801323972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.710799</v>
       </c>
       <c r="I7">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J7">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N7">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O7">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P7">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q7">
-        <v>9.694659035788332</v>
+        <v>7.218460801026667</v>
       </c>
       <c r="R7">
-        <v>87.25193132209499</v>
+        <v>64.96614720924001</v>
       </c>
       <c r="S7">
-        <v>0.07690857801423927</v>
+        <v>0.04539617361322412</v>
       </c>
       <c r="T7">
-        <v>0.08360036186544142</v>
+        <v>0.05677663449860586</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.710799</v>
       </c>
       <c r="I8">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J8">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>104.214408</v>
       </c>
       <c r="O8">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P8">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q8">
-        <v>8.230610776888</v>
+        <v>8.230610776887998</v>
       </c>
       <c r="R8">
-        <v>74.075496991992</v>
+        <v>74.07549699199198</v>
       </c>
       <c r="S8">
-        <v>0.06529415513246627</v>
+        <v>0.05176148296286921</v>
       </c>
       <c r="T8">
-        <v>0.07097537280902283</v>
+        <v>0.0647376764466453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.710799</v>
       </c>
       <c r="I9">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J9">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N9">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O9">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P9">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q9">
-        <v>4.455936617621</v>
+        <v>5.613031224986667</v>
       </c>
       <c r="R9">
-        <v>40.103429558589</v>
+        <v>50.51728102488</v>
       </c>
       <c r="S9">
-        <v>0.03534933489849579</v>
+        <v>0.03529978855737523</v>
       </c>
       <c r="T9">
-        <v>0.03842506603970471</v>
+        <v>0.04414916573973823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>0.710799</v>
       </c>
       <c r="I10">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J10">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N10">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O10">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P10">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q10">
-        <v>6.044298014207</v>
+        <v>6.2116408304445</v>
       </c>
       <c r="R10">
-        <v>36.265788085242</v>
+        <v>37.269844982667</v>
       </c>
       <c r="S10">
-        <v>0.04794994477380812</v>
+        <v>0.03906438413044289</v>
       </c>
       <c r="T10">
-        <v>0.03474803321051402</v>
+        <v>0.03257167705490194</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>0.710799</v>
       </c>
       <c r="I11">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J11">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N11">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O11">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P11">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q11">
-        <v>5.030066976829</v>
+        <v>5.756938326883999</v>
       </c>
       <c r="R11">
-        <v>45.270602791461</v>
+        <v>51.812444941956</v>
       </c>
       <c r="S11">
-        <v>0.03990396125085013</v>
+        <v>0.03620480584041957</v>
       </c>
       <c r="T11">
-        <v>0.04337598856421428</v>
+        <v>0.04528106368188906</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H12">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I12">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J12">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N12">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O12">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P12">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q12">
-        <v>4.884202826246111</v>
+        <v>2.973221973635556</v>
       </c>
       <c r="R12">
-        <v>43.95782543621499</v>
+        <v>26.75899776272</v>
       </c>
       <c r="S12">
-        <v>0.03874680818717123</v>
+        <v>0.01869829380892609</v>
       </c>
       <c r="T12">
-        <v>0.04211815208673643</v>
+        <v>0.02338580785204514</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H13">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I13">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J13">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>104.214408</v>
       </c>
       <c r="O13">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P13">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q13">
-        <v>4.146610238669333</v>
+        <v>3.390117850997333</v>
       </c>
       <c r="R13">
-        <v>37.319492148024</v>
+        <v>30.511060658976</v>
       </c>
       <c r="S13">
-        <v>0.03289542168095561</v>
+        <v>0.02132011003111308</v>
       </c>
       <c r="T13">
-        <v>0.03575763883886936</v>
+        <v>0.02666489261892213</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H14">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I14">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J14">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N14">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O14">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P14">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q14">
-        <v>2.244916313303666</v>
+        <v>2.311959327182223</v>
       </c>
       <c r="R14">
-        <v>20.204246819733</v>
+        <v>20.80763394464</v>
       </c>
       <c r="S14">
-        <v>0.01780911745114447</v>
+        <v>0.01453967956555913</v>
       </c>
       <c r="T14">
-        <v>0.01935868146130815</v>
+        <v>0.01818466198173413</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H15">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I15">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J15">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N15">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O15">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P15">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q15">
-        <v>3.045138290545666</v>
+        <v>2.558521479646</v>
       </c>
       <c r="R15">
-        <v>18.270829743274</v>
+        <v>15.351128877876</v>
       </c>
       <c r="S15">
-        <v>0.02415734838306611</v>
+        <v>0.01609028413185447</v>
       </c>
       <c r="T15">
-        <v>0.01750617957648323</v>
+        <v>0.01341599388113623</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H16">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I16">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J16">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N16">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O16">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P16">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q16">
-        <v>2.534165178346333</v>
+        <v>2.371233425818666</v>
       </c>
       <c r="R16">
-        <v>22.807486605117</v>
+        <v>21.341100832368</v>
       </c>
       <c r="S16">
-        <v>0.02010375399488911</v>
+        <v>0.01491244840737159</v>
       </c>
       <c r="T16">
-        <v>0.02185297339024228</v>
+        <v>0.01865088101738188</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H17">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I17">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J17">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N17">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O17">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P17">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q17">
-        <v>2.311438829800833</v>
+        <v>15.32153973384</v>
       </c>
       <c r="R17">
-        <v>13.868632978805</v>
+        <v>91.92923840304</v>
       </c>
       <c r="S17">
-        <v>0.01833684639249654</v>
+        <v>0.09635562164171997</v>
       </c>
       <c r="T17">
-        <v>0.01328821858770122</v>
+        <v>0.08034080814018559</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H18">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I18">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J18">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>104.214408</v>
       </c>
       <c r="O18">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P18">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q18">
-        <v>1.962374671708</v>
+        <v>17.469878070672</v>
       </c>
       <c r="R18">
-        <v>11.774248030248</v>
+        <v>104.819268424032</v>
       </c>
       <c r="S18">
-        <v>0.01556768989761066</v>
+        <v>0.1098663052634831</v>
       </c>
       <c r="T18">
-        <v>0.01128148547667654</v>
+        <v>0.09160594474772984</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H19">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I19">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J19">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N19">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O19">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P19">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q19">
-        <v>1.0624019764985</v>
+        <v>11.91393613008</v>
       </c>
       <c r="R19">
-        <v>6.374411858991</v>
+        <v>71.48361678048001</v>
       </c>
       <c r="S19">
-        <v>0.008428127795973869</v>
+        <v>0.07492554547100286</v>
       </c>
       <c r="T19">
-        <v>0.006107637160761169</v>
+        <v>0.06247252387481084</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H20">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I20">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J20">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N20">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O20">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P20">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q20">
-        <v>1.4411053629995</v>
+        <v>13.184514596583</v>
       </c>
       <c r="R20">
-        <v>5.764421451997999</v>
+        <v>52.738058386332</v>
       </c>
       <c r="S20">
-        <v>0.01143241488203335</v>
+        <v>0.08291608559368256</v>
       </c>
       <c r="T20">
-        <v>0.005523175384542022</v>
+        <v>0.04608999600242626</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H21">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I21">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J21">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N21">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O21">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P21">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q21">
-        <v>1.1992884003265</v>
+        <v>12.219386064696</v>
       </c>
       <c r="R21">
-        <v>7.195730401959</v>
+        <v>73.31631638817599</v>
       </c>
       <c r="S21">
-        <v>0.009514059768124953</v>
+        <v>0.07684648937361484</v>
       </c>
       <c r="T21">
-        <v>0.006894582806072453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.062692</v>
-      </c>
-      <c r="H22">
-        <v>0.188076</v>
-      </c>
-      <c r="I22">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J22">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>40.91730166666667</v>
-      </c>
-      <c r="N22">
-        <v>122.751905</v>
-      </c>
-      <c r="O22">
-        <v>0.2897771170516137</v>
-      </c>
-      <c r="P22">
-        <v>0.3083463959441224</v>
-      </c>
-      <c r="Q22">
-        <v>2.565187476086666</v>
-      </c>
-      <c r="R22">
-        <v>23.08668728478</v>
-      </c>
-      <c r="S22">
-        <v>0.02034985659603638</v>
-      </c>
-      <c r="T22">
-        <v>0.02212048927784755</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.062692</v>
-      </c>
-      <c r="H23">
-        <v>0.188076</v>
-      </c>
-      <c r="I23">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J23">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>34.738136</v>
-      </c>
-      <c r="N23">
-        <v>104.214408</v>
-      </c>
-      <c r="O23">
-        <v>0.2460161470038337</v>
-      </c>
-      <c r="P23">
-        <v>0.2617811683839067</v>
-      </c>
-      <c r="Q23">
-        <v>2.177803222112</v>
-      </c>
-      <c r="R23">
-        <v>19.600228999008</v>
-      </c>
-      <c r="S23">
-        <v>0.01727670342908997</v>
-      </c>
-      <c r="T23">
-        <v>0.01877994231341037</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.062692</v>
-      </c>
-      <c r="H24">
-        <v>0.188076</v>
-      </c>
-      <c r="I24">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J24">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>18.806737</v>
-      </c>
-      <c r="N24">
-        <v>56.420211</v>
-      </c>
-      <c r="O24">
-        <v>0.1331896729995656</v>
-      </c>
-      <c r="P24">
-        <v>0.1417246332776418</v>
-      </c>
-      <c r="Q24">
-        <v>1.179031956004</v>
-      </c>
-      <c r="R24">
-        <v>10.611287604036</v>
-      </c>
-      <c r="S24">
-        <v>0.009353363623710071</v>
-      </c>
-      <c r="T24">
-        <v>0.01016719595903132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.062692</v>
-      </c>
-      <c r="H25">
-        <v>0.188076</v>
-      </c>
-      <c r="I25">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J25">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>25.510579</v>
-      </c>
-      <c r="N25">
-        <v>51.021158</v>
-      </c>
-      <c r="O25">
-        <v>0.1806664109270835</v>
-      </c>
-      <c r="P25">
-        <v>0.1281624931702333</v>
-      </c>
-      <c r="Q25">
-        <v>1.599309218668</v>
-      </c>
-      <c r="R25">
-        <v>9.595855312008</v>
-      </c>
-      <c r="S25">
-        <v>0.01268745990537231</v>
-      </c>
-      <c r="T25">
-        <v>0.009194260394430262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.062692</v>
-      </c>
-      <c r="H26">
-        <v>0.188076</v>
-      </c>
-      <c r="I26">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J26">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>21.229913</v>
-      </c>
-      <c r="N26">
-        <v>63.689739</v>
-      </c>
-      <c r="O26">
-        <v>0.1503506520179033</v>
-      </c>
-      <c r="P26">
-        <v>0.1599853092240957</v>
-      </c>
-      <c r="Q26">
-        <v>1.330945705796</v>
-      </c>
-      <c r="R26">
-        <v>11.978511352164</v>
-      </c>
-      <c r="S26">
-        <v>0.01055850868700559</v>
-      </c>
-      <c r="T26">
-        <v>0.01147720020034238</v>
+        <v>0.06407419674971228</v>
       </c>
     </row>
   </sheetData>
